--- a/AI_Engine/Resultados/Resultados buenos/dataFrame - 70017078.xlsx
+++ b/AI_Engine/Resultados/Resultados buenos/dataFrame - 70017078.xlsx
@@ -8,19 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\W8DE5P2\OneDrive-Deere&amp;Co\OneDrive - Deere &amp; Co\Desktop\Proyectos\Nueva carpeta\Bot-Creacion-de-Pedidos\AI_Engine\Resultados\Resultados buenos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7479900-B23D-4D10-8559-045869DAC6D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BAFB922-1596-43F5-BBAB-CAA09A9593B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-130" yWindow="10690" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3225" windowWidth="7545" windowHeight="4545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="49">
   <si>
     <t>archivo</t>
   </si>
@@ -119,19 +131,73 @@
   </si>
   <si>
     <t>C:\Users\W8DE5P2\OneDrive-Deere&amp;Co\OneDrive - Deere &amp; Co\Desktop\Proveedores\CLIIENTES JOHN DEERE\Thyssenkrupp Campo Limpo\t99.pdf</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>WwW §2.2021</t>
+  </si>
+  <si>
+    <t>W 48.2021</t>
+  </si>
+  <si>
+    <t>W 46.2021</t>
+  </si>
+  <si>
+    <t>W 41.2021</t>
+  </si>
+  <si>
+    <t>W 39.2021</t>
+  </si>
+  <si>
+    <t>W 01.2022</t>
+  </si>
+  <si>
+    <t>W 50.2021</t>
+  </si>
+  <si>
+    <t>W 45.2021</t>
+  </si>
+  <si>
+    <t>WwW §1.2021</t>
+  </si>
+  <si>
+    <t>W 11.2022</t>
+  </si>
+  <si>
+    <t>W 08.2022</t>
+  </si>
+  <si>
+    <t>W 26.2021</t>
+  </si>
+  <si>
+    <t>W 21.2021</t>
+  </si>
+  <si>
+    <t>W 18.2021</t>
+  </si>
+  <si>
+    <t>Fecha</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -174,9 +240,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -481,19 +553,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I66"/>
+  <dimension ref="A1:J68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="I68" sqref="I68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="9.140625" style="2"/>
     <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -509,7 +582,7 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -519,11 +592,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
@@ -538,15 +611,21 @@
       <c r="F2" t="s">
         <v>12</v>
       </c>
+      <c r="G2" t="s">
+        <v>34</v>
+      </c>
       <c r="I2">
         <v>-100</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
@@ -561,15 +640,21 @@
       <c r="F3" t="s">
         <v>13</v>
       </c>
+      <c r="G3" t="s">
+        <v>35</v>
+      </c>
       <c r="I3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>72.570999999999998</v>
+      </c>
+      <c r="J3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
@@ -584,15 +669,21 @@
       <c r="F4" t="s">
         <v>13</v>
       </c>
+      <c r="G4" t="s">
+        <v>36</v>
+      </c>
       <c r="I4">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>71.430000000000007</v>
+      </c>
+      <c r="J4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="s">
@@ -607,15 +698,21 @@
       <c r="F5" t="s">
         <v>13</v>
       </c>
+      <c r="G5" t="s">
+        <v>37</v>
+      </c>
       <c r="I5">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>72.415000000000006</v>
+      </c>
+      <c r="J5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C6" t="s">
@@ -630,15 +727,21 @@
       <c r="F6" t="s">
         <v>14</v>
       </c>
+      <c r="G6" t="s">
+        <v>38</v>
+      </c>
       <c r="I6">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>70.364000000000004</v>
+      </c>
+      <c r="J6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="s">
@@ -653,15 +756,21 @@
       <c r="F7" t="s">
         <v>13</v>
       </c>
+      <c r="G7" t="s">
+        <v>19</v>
+      </c>
       <c r="I7">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>66.97</v>
+      </c>
+      <c r="J7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C8" t="s">
@@ -676,15 +785,21 @@
       <c r="F8" t="s">
         <v>13</v>
       </c>
+      <c r="G8" t="s">
+        <v>22</v>
+      </c>
       <c r="I8">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>66.113</v>
+      </c>
+      <c r="J8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C9" t="s">
@@ -699,15 +814,21 @@
       <c r="F9" t="s">
         <v>12</v>
       </c>
+      <c r="G9" t="s">
+        <v>39</v>
+      </c>
       <c r="I9">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>72.415000000000006</v>
+      </c>
+      <c r="J9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C10" t="s">
@@ -722,15 +843,21 @@
       <c r="F10" t="s">
         <v>12</v>
       </c>
+      <c r="G10" t="s">
+        <v>40</v>
+      </c>
       <c r="I10">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="J10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C11" t="s">
@@ -745,15 +872,21 @@
       <c r="F11" t="s">
         <v>12</v>
       </c>
+      <c r="G11" t="s">
+        <v>41</v>
+      </c>
       <c r="I11">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>62.421999999999997</v>
+      </c>
+      <c r="J11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C12" t="s">
@@ -768,15 +901,21 @@
       <c r="F12" t="s">
         <v>18</v>
       </c>
+      <c r="G12" t="s">
+        <v>24</v>
+      </c>
       <c r="I12">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>66.113</v>
+      </c>
+      <c r="J12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C13" t="s">
@@ -795,14 +934,17 @@
         <v>19</v>
       </c>
       <c r="I13">
-        <v>70.191999999999993</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>58.874000000000002</v>
+      </c>
+      <c r="J13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C14" t="s">
@@ -816,16 +958,22 @@
       </c>
       <c r="F14" t="s">
         <v>13</v>
+      </c>
+      <c r="G14" t="s">
+        <v>42</v>
       </c>
       <c r="I14">
         <v>-100</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C15" t="s">
@@ -840,15 +988,21 @@
       <c r="F15" t="s">
         <v>13</v>
       </c>
+      <c r="G15" t="s">
+        <v>35</v>
+      </c>
       <c r="I15">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>71.430000000000007</v>
+      </c>
+      <c r="J15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C16" t="s">
@@ -863,15 +1017,21 @@
       <c r="F16" t="s">
         <v>13</v>
       </c>
+      <c r="G16" t="s">
+        <v>36</v>
+      </c>
       <c r="I16">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>72.415000000000006</v>
+      </c>
+      <c r="J16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C17" t="s">
@@ -886,15 +1046,21 @@
       <c r="F17" t="s">
         <v>13</v>
       </c>
+      <c r="G17" t="s">
+        <v>37</v>
+      </c>
       <c r="I17">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>67.201999999999998</v>
+      </c>
+      <c r="J17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C18" t="s">
@@ -909,15 +1075,21 @@
       <c r="F18" t="s">
         <v>13</v>
       </c>
+      <c r="G18" t="s">
+        <v>38</v>
+      </c>
       <c r="I18">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+        <v>66.97</v>
+      </c>
+      <c r="J18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C19" t="s">
@@ -932,15 +1104,21 @@
       <c r="F19" t="s">
         <v>13</v>
       </c>
+      <c r="G19" t="s">
+        <v>19</v>
+      </c>
       <c r="I19">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <v>66.113</v>
+      </c>
+      <c r="J19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C20" t="s">
@@ -955,15 +1133,21 @@
       <c r="F20" t="s">
         <v>18</v>
       </c>
+      <c r="G20" t="s">
+        <v>39</v>
+      </c>
       <c r="I20">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+        <v>71.430000000000007</v>
+      </c>
+      <c r="J20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C21" t="s">
@@ -978,15 +1162,21 @@
       <c r="F21" t="s">
         <v>18</v>
       </c>
+      <c r="G21" t="s">
+        <v>40</v>
+      </c>
       <c r="I21">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+        <v>49.81</v>
+      </c>
+      <c r="J21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C22" t="s">
@@ -1001,15 +1191,21 @@
       <c r="F22" t="s">
         <v>12</v>
       </c>
+      <c r="G22" t="s">
+        <v>41</v>
+      </c>
       <c r="I22">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+        <v>70.364000000000004</v>
+      </c>
+      <c r="J22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C23" t="s">
@@ -1024,15 +1220,21 @@
       <c r="F23" t="s">
         <v>18</v>
       </c>
+      <c r="G23" t="s">
+        <v>24</v>
+      </c>
       <c r="I23">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+        <v>62.421999999999997</v>
+      </c>
+      <c r="J23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C24" t="s">
@@ -1047,15 +1249,21 @@
       <c r="F24" t="s">
         <v>12</v>
       </c>
+      <c r="G24" t="s">
+        <v>19</v>
+      </c>
       <c r="I24">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+        <v>66.113</v>
+      </c>
+      <c r="J24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C25" t="s">
@@ -1074,14 +1282,17 @@
         <v>22</v>
       </c>
       <c r="I25">
-        <v>70.191999999999993</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+        <v>58.874000000000002</v>
+      </c>
+      <c r="J25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C26" t="s">
@@ -1096,15 +1307,21 @@
       <c r="F26" t="s">
         <v>18</v>
       </c>
+      <c r="G26" t="s">
+        <v>43</v>
+      </c>
       <c r="I26">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+        <v>71.430000000000007</v>
+      </c>
+      <c r="J26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C27" t="s">
@@ -1119,15 +1336,21 @@
       <c r="F27" t="s">
         <v>18</v>
       </c>
+      <c r="G27" t="s">
+        <v>44</v>
+      </c>
       <c r="I27">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+        <v>72.415000000000006</v>
+      </c>
+      <c r="J27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C28" t="s">
@@ -1142,15 +1365,21 @@
       <c r="F28" t="s">
         <v>12</v>
       </c>
+      <c r="G28" t="s">
+        <v>39</v>
+      </c>
       <c r="I28">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+        <v>70.364000000000004</v>
+      </c>
+      <c r="J28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C29" t="s">
@@ -1165,15 +1394,21 @@
       <c r="F29" t="s">
         <v>12</v>
       </c>
+      <c r="G29" t="s">
+        <v>40</v>
+      </c>
       <c r="I29">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+        <v>34.003</v>
+      </c>
+      <c r="J29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C30" t="s">
@@ -1188,15 +1423,21 @@
       <c r="F30" t="s">
         <v>12</v>
       </c>
+      <c r="G30" t="s">
+        <v>41</v>
+      </c>
       <c r="I30">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+        <v>66.113</v>
+      </c>
+      <c r="J30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C31" t="s">
@@ -1215,14 +1456,17 @@
         <v>24</v>
       </c>
       <c r="I31">
-        <v>70.191999999999993</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+        <v>58.874000000000002</v>
+      </c>
+      <c r="J31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C32" t="s">
@@ -1237,15 +1481,21 @@
       <c r="F32" t="s">
         <v>12</v>
       </c>
+      <c r="G32" t="s">
+        <v>43</v>
+      </c>
       <c r="I32">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+        <v>72.570999999999998</v>
+      </c>
+      <c r="J32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C33" t="s">
@@ -1259,16 +1509,22 @@
       </c>
       <c r="F33" t="s">
         <v>13</v>
+      </c>
+      <c r="G33" t="s">
+        <v>42</v>
       </c>
       <c r="I33">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J33" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C34" t="s">
@@ -1283,15 +1539,21 @@
       <c r="F34" t="s">
         <v>13</v>
       </c>
+      <c r="G34" t="s">
+        <v>35</v>
+      </c>
       <c r="I34">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+        <v>72.415000000000006</v>
+      </c>
+      <c r="J34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C35" t="s">
@@ -1306,15 +1568,21 @@
       <c r="F35" t="s">
         <v>13</v>
       </c>
+      <c r="G35" t="s">
+        <v>36</v>
+      </c>
       <c r="I35">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+        <v>67.201999999999998</v>
+      </c>
+      <c r="J35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C36" t="s">
@@ -1329,15 +1597,21 @@
       <c r="F36" t="s">
         <v>13</v>
       </c>
+      <c r="G36" t="s">
+        <v>37</v>
+      </c>
       <c r="I36">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+        <v>66.97</v>
+      </c>
+      <c r="J36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C37" t="s">
@@ -1352,15 +1626,21 @@
       <c r="F37" t="s">
         <v>13</v>
       </c>
+      <c r="G37" t="s">
+        <v>38</v>
+      </c>
       <c r="I37">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+        <v>66.113</v>
+      </c>
+      <c r="J37" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C38" t="s">
@@ -1375,15 +1655,21 @@
       <c r="F38" t="s">
         <v>13</v>
       </c>
+      <c r="G38" t="s">
+        <v>36</v>
+      </c>
       <c r="I38">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+        <v>71.430000000000007</v>
+      </c>
+      <c r="J38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C39" t="s">
@@ -1398,15 +1684,21 @@
       <c r="F39" t="s">
         <v>13</v>
       </c>
+      <c r="G39" t="s">
+        <v>37</v>
+      </c>
       <c r="I39">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+        <v>72.415000000000006</v>
+      </c>
+      <c r="J39" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C40" t="s">
@@ -1421,15 +1713,21 @@
       <c r="F40" t="s">
         <v>14</v>
       </c>
+      <c r="G40" t="s">
+        <v>38</v>
+      </c>
       <c r="I40">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+        <v>70.364000000000004</v>
+      </c>
+      <c r="J40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C41" t="s">
@@ -1444,15 +1742,21 @@
       <c r="F41" t="s">
         <v>13</v>
       </c>
+      <c r="G41" t="s">
+        <v>19</v>
+      </c>
       <c r="I41">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+        <v>62.421999999999997</v>
+      </c>
+      <c r="J41" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C42" t="s">
@@ -1467,15 +1771,21 @@
       <c r="F42" t="s">
         <v>13</v>
       </c>
+      <c r="G42" t="s">
+        <v>22</v>
+      </c>
       <c r="I42">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+        <v>66.113</v>
+      </c>
+      <c r="J42" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C43" t="s">
@@ -1490,15 +1800,21 @@
       <c r="F43" t="s">
         <v>18</v>
       </c>
+      <c r="G43" t="s">
+        <v>36</v>
+      </c>
       <c r="I43">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+        <v>70.364000000000004</v>
+      </c>
+      <c r="J43" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C44" t="s">
@@ -1513,15 +1829,21 @@
       <c r="F44" t="s">
         <v>18</v>
       </c>
+      <c r="G44" t="s">
+        <v>24</v>
+      </c>
       <c r="I44">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+        <v>62.421999999999997</v>
+      </c>
+      <c r="J44" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C45" t="s">
@@ -1536,15 +1858,21 @@
       <c r="F45" t="s">
         <v>12</v>
       </c>
+      <c r="G45" t="s">
+        <v>19</v>
+      </c>
       <c r="I45">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+        <v>72.415000000000006</v>
+      </c>
+      <c r="J45" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C46" t="s">
@@ -1563,14 +1891,17 @@
         <v>22</v>
       </c>
       <c r="I46">
-        <v>70.191999999999993</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+        <v>58.874000000000002</v>
+      </c>
+      <c r="J46" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C47" t="s">
@@ -1585,15 +1916,21 @@
       <c r="F47" t="s">
         <v>13</v>
       </c>
+      <c r="G47" t="s">
+        <v>37</v>
+      </c>
       <c r="I47">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+        <v>72.570999999999998</v>
+      </c>
+      <c r="J47" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C48" t="s">
@@ -1608,15 +1945,21 @@
       <c r="F48" t="s">
         <v>13</v>
       </c>
+      <c r="G48" t="s">
+        <v>38</v>
+      </c>
       <c r="I48">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+        <v>71.430000000000007</v>
+      </c>
+      <c r="J48" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C49" t="s">
@@ -1631,15 +1974,21 @@
       <c r="F49" t="s">
         <v>13</v>
       </c>
+      <c r="G49" t="s">
+        <v>19</v>
+      </c>
       <c r="I49">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+        <v>72.415000000000006</v>
+      </c>
+      <c r="J49" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C50" t="s">
@@ -1654,15 +2003,21 @@
       <c r="F50" t="s">
         <v>14</v>
       </c>
+      <c r="G50" t="s">
+        <v>22</v>
+      </c>
       <c r="I50">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+        <v>70.364000000000004</v>
+      </c>
+      <c r="J50" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C51" t="s">
@@ -1677,15 +2032,21 @@
       <c r="F51" t="s">
         <v>13</v>
       </c>
+      <c r="G51" t="s">
+        <v>45</v>
+      </c>
       <c r="I51">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+        <v>66.97</v>
+      </c>
+      <c r="J51" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C52" t="s">
@@ -1700,15 +2061,21 @@
       <c r="F52" t="s">
         <v>13</v>
       </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
       <c r="I52">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+        <v>66.113</v>
+      </c>
+      <c r="J52" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C53" t="s">
@@ -1723,15 +2090,21 @@
       <c r="F53" t="s">
         <v>18</v>
       </c>
+      <c r="G53" t="s">
+        <v>24</v>
+      </c>
       <c r="I53">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+        <v>70.364000000000004</v>
+      </c>
+      <c r="J53" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C54" t="s">
@@ -1746,15 +2119,21 @@
       <c r="F54" t="s">
         <v>12</v>
       </c>
+      <c r="G54" t="s">
+        <v>19</v>
+      </c>
       <c r="I54">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+        <v>62.421999999999997</v>
+      </c>
+      <c r="J54" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C55" t="s">
@@ -1769,15 +2148,21 @@
       <c r="F55" t="s">
         <v>12</v>
       </c>
+      <c r="G55" t="s">
+        <v>22</v>
+      </c>
       <c r="I55">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+        <v>72.415000000000006</v>
+      </c>
+      <c r="J55" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C56" t="s">
@@ -1796,14 +2181,17 @@
         <v>30</v>
       </c>
       <c r="I56">
-        <v>70.191999999999993</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+        <v>58.874000000000002</v>
+      </c>
+      <c r="J56" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C57" t="s">
@@ -1818,15 +2206,21 @@
       <c r="F57" t="s">
         <v>18</v>
       </c>
+      <c r="G57" t="s">
+        <v>24</v>
+      </c>
       <c r="I57">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+        <v>70.364000000000004</v>
+      </c>
+      <c r="J57" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C58" t="s">
@@ -1841,15 +2235,21 @@
       <c r="F58" t="s">
         <v>12</v>
       </c>
+      <c r="G58" t="s">
+        <v>19</v>
+      </c>
       <c r="I58">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+        <v>62.421999999999997</v>
+      </c>
+      <c r="J58" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C59" t="s">
@@ -1864,15 +2264,21 @@
       <c r="F59" t="s">
         <v>12</v>
       </c>
+      <c r="G59" t="s">
+        <v>22</v>
+      </c>
       <c r="I59">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+        <v>72.415000000000006</v>
+      </c>
+      <c r="J59" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C60" t="s">
@@ -1891,14 +2297,17 @@
         <v>30</v>
       </c>
       <c r="I60">
-        <v>70.191999999999993</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+        <v>58.874000000000002</v>
+      </c>
+      <c r="J60" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C61" t="s">
@@ -1913,15 +2322,21 @@
       <c r="F61" t="s">
         <v>13</v>
       </c>
+      <c r="G61" t="s">
+        <v>38</v>
+      </c>
       <c r="I61">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+        <v>72.570999999999998</v>
+      </c>
+      <c r="J61" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C62" t="s">
@@ -1936,15 +2351,21 @@
       <c r="F62" t="s">
         <v>13</v>
       </c>
+      <c r="G62" t="s">
+        <v>19</v>
+      </c>
       <c r="I62">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+        <v>71.430000000000007</v>
+      </c>
+      <c r="J62" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C63" t="s">
@@ -1959,15 +2380,21 @@
       <c r="F63" t="s">
         <v>13</v>
       </c>
+      <c r="G63" t="s">
+        <v>22</v>
+      </c>
       <c r="I63">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+        <v>72.415000000000006</v>
+      </c>
+      <c r="J63" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C64" t="s">
@@ -1982,15 +2409,21 @@
       <c r="F64" t="s">
         <v>14</v>
       </c>
+      <c r="G64" t="s">
+        <v>45</v>
+      </c>
       <c r="I64">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+        <v>70.364000000000004</v>
+      </c>
+      <c r="J64" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C65" t="s">
@@ -2005,15 +2438,21 @@
       <c r="F65" t="s">
         <v>13</v>
       </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
       <c r="I65">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+        <v>66.97</v>
+      </c>
+      <c r="J65" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C66" t="s">
@@ -2028,8 +2467,20 @@
       <c r="F66" t="s">
         <v>12</v>
       </c>
+      <c r="G66" t="s">
+        <v>47</v>
+      </c>
       <c r="I66">
-        <v>-100</v>
+        <v>66.113</v>
+      </c>
+      <c r="J66" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I68">
+        <f>AVERAGEIF(I2:I66,"&lt;&gt;-100")</f>
+        <v>66.648306451612868</v>
       </c>
     </row>
   </sheetData>

--- a/AI_Engine/Resultados/Resultados buenos/dataFrame - 70017078.xlsx
+++ b/AI_Engine/Resultados/Resultados buenos/dataFrame - 70017078.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\W8DE5P2\OneDrive-Deere&amp;Co\OneDrive - Deere &amp; Co\Desktop\Proyectos\Nueva carpeta\Bot-Creacion-de-Pedidos\AI_Engine\Resultados\Resultados buenos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deere-my.sharepoint.com/personal/gonzalezdiazsergio_johndeere_com/Documents/Desktop/Proyectos/Bot-Creacion-de-Pedidos/AI_Engine/Resultados/Resultados buenos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BAFB922-1596-43F5-BBAB-CAA09A9593B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{5BAFB922-1596-43F5-BBAB-CAA09A9593B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97C4B715-F295-4BD8-91D1-6EAC3C173A40}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3225" windowWidth="7545" windowHeight="4545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2115" yWindow="645" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="47">
   <si>
     <t>archivo</t>
   </si>
@@ -76,9 +76,6 @@
     <t>1.344</t>
   </si>
   <si>
-    <t>1,344</t>
-  </si>
-  <si>
     <t>C:\Users\W8DE5P2\OneDrive-Deere&amp;Co\OneDrive - Deere &amp; Co\Desktop\Proveedores\CLIIENTES JOHN DEERE\Thyssenkrupp Campo Limpo\t158.pdf</t>
   </si>
   <si>
@@ -136,9 +133,6 @@
     <t>x</t>
   </si>
   <si>
-    <t>WwW §2.2021</t>
-  </si>
-  <si>
     <t>W 48.2021</t>
   </si>
   <si>
@@ -160,9 +154,6 @@
     <t>W 45.2021</t>
   </si>
   <si>
-    <t>WwW §1.2021</t>
-  </si>
-  <si>
     <t>W 11.2022</t>
   </si>
   <si>
@@ -178,7 +169,10 @@
     <t>W 18.2021</t>
   </si>
   <si>
-    <t>Fecha</t>
+    <t>W 52.2021</t>
+  </si>
+  <si>
+    <t>W 51.2021</t>
   </si>
 </sst>
 </file>
@@ -555,8 +549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I68" sqref="I68"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="M40" sqref="M40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,7 +573,7 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
@@ -588,7 +582,7 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -612,13 +606,13 @@
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="I2">
-        <v>-100</v>
+        <v>75.72</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -641,13 +635,13 @@
         <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I3">
-        <v>72.570999999999998</v>
+        <v>78.082999999999998</v>
       </c>
       <c r="J3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -670,13 +664,13 @@
         <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I4">
-        <v>71.430000000000007</v>
+        <v>83.837999999999994</v>
       </c>
       <c r="J4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -699,13 +693,13 @@
         <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I5">
-        <v>72.415000000000006</v>
+        <v>81.147999999999996</v>
       </c>
       <c r="J5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -725,16 +719,16 @@
         <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I6">
-        <v>70.364000000000004</v>
+        <v>80.012</v>
       </c>
       <c r="J6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -757,13 +751,13 @@
         <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I7">
-        <v>66.97</v>
+        <v>83.832999999999998</v>
       </c>
       <c r="J7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -786,13 +780,13 @@
         <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I8">
-        <v>66.113</v>
+        <v>77.13</v>
       </c>
       <c r="J8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -800,28 +794,28 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
         <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I9">
-        <v>72.415000000000006</v>
+        <v>81.147999999999996</v>
       </c>
       <c r="J9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -829,28 +823,28 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F10" t="s">
         <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I10">
-        <v>36.200000000000003</v>
+        <v>80.012</v>
       </c>
       <c r="J10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -858,28 +852,28 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I11">
-        <v>62.421999999999997</v>
+        <v>81.988</v>
       </c>
       <c r="J11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -887,28 +881,28 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
         <v>10</v>
       </c>
       <c r="E12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" t="s">
         <v>17</v>
       </c>
-      <c r="F12" t="s">
-        <v>18</v>
-      </c>
       <c r="G12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I12">
-        <v>66.113</v>
+        <v>77.13</v>
       </c>
       <c r="J12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -916,28 +910,28 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13" t="s">
         <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F13" t="s">
         <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I13">
-        <v>58.874000000000002</v>
+        <v>79.245000000000005</v>
       </c>
       <c r="J13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -945,7 +939,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
@@ -960,13 +954,13 @@
         <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I14">
-        <v>-100</v>
+        <v>78.082999999999998</v>
       </c>
       <c r="J14" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -974,7 +968,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
@@ -989,13 +983,13 @@
         <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I15">
-        <v>71.430000000000007</v>
+        <v>83.837999999999994</v>
       </c>
       <c r="J15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1003,7 +997,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
@@ -1018,13 +1012,13 @@
         <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I16">
-        <v>72.415000000000006</v>
+        <v>81.147999999999996</v>
       </c>
       <c r="J16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1032,7 +1026,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
@@ -1047,13 +1041,13 @@
         <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I17">
-        <v>67.201999999999998</v>
+        <v>81</v>
       </c>
       <c r="J17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1061,7 +1055,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
@@ -1076,13 +1070,13 @@
         <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I18">
-        <v>66.97</v>
+        <v>83.832999999999998</v>
       </c>
       <c r="J18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1090,7 +1084,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
         <v>9</v>
@@ -1105,13 +1099,13 @@
         <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I19">
-        <v>66.113</v>
+        <v>77.13</v>
       </c>
       <c r="J19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1119,28 +1113,28 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D20" t="s">
         <v>10</v>
       </c>
       <c r="E20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" t="s">
         <v>17</v>
       </c>
-      <c r="F20" t="s">
-        <v>18</v>
-      </c>
       <c r="G20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I20">
-        <v>71.430000000000007</v>
+        <v>83.837999999999994</v>
       </c>
       <c r="J20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1148,28 +1142,28 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D21" t="s">
         <v>10</v>
       </c>
       <c r="E21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" t="s">
         <v>17</v>
       </c>
-      <c r="F21" t="s">
-        <v>18</v>
-      </c>
       <c r="G21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I21">
-        <v>49.81</v>
+        <v>81.147999999999996</v>
       </c>
       <c r="J21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1177,28 +1171,28 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D22" t="s">
         <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F22" t="s">
         <v>12</v>
       </c>
       <c r="G22" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I22">
-        <v>70.364000000000004</v>
+        <v>80.012</v>
       </c>
       <c r="J22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1206,28 +1200,28 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D23" t="s">
         <v>10</v>
       </c>
       <c r="E23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" t="s">
         <v>17</v>
       </c>
-      <c r="F23" t="s">
-        <v>18</v>
-      </c>
       <c r="G23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I23">
-        <v>62.421999999999997</v>
+        <v>81.988</v>
       </c>
       <c r="J23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -1235,28 +1229,28 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D24" t="s">
         <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F24" t="s">
         <v>12</v>
       </c>
       <c r="G24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I24">
-        <v>66.113</v>
+        <v>77.13</v>
       </c>
       <c r="J24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1264,28 +1258,28 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D25" t="s">
         <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F25" t="s">
         <v>12</v>
       </c>
       <c r="G25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I25">
-        <v>58.874000000000002</v>
+        <v>79.245000000000005</v>
       </c>
       <c r="J25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -1293,28 +1287,28 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D26" t="s">
         <v>10</v>
       </c>
       <c r="E26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" t="s">
         <v>17</v>
       </c>
-      <c r="F26" t="s">
-        <v>18</v>
-      </c>
       <c r="G26" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I26">
-        <v>71.430000000000007</v>
+        <v>83.837999999999994</v>
       </c>
       <c r="J26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -1322,28 +1316,28 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D27" t="s">
         <v>10</v>
       </c>
       <c r="E27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" t="s">
         <v>17</v>
       </c>
-      <c r="F27" t="s">
-        <v>18</v>
-      </c>
       <c r="G27" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I27">
-        <v>72.415000000000006</v>
+        <v>81.147999999999996</v>
       </c>
       <c r="J27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -1351,28 +1345,28 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D28" t="s">
         <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F28" t="s">
         <v>12</v>
       </c>
       <c r="G28" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I28">
-        <v>70.364000000000004</v>
+        <v>80.012</v>
       </c>
       <c r="J28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -1380,28 +1374,28 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D29" t="s">
         <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F29" t="s">
         <v>12</v>
       </c>
       <c r="G29" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I29">
-        <v>34.003</v>
+        <v>81.988</v>
       </c>
       <c r="J29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -1409,28 +1403,28 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D30" t="s">
         <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F30" t="s">
         <v>12</v>
       </c>
       <c r="G30" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I30">
-        <v>66.113</v>
+        <v>77.13</v>
       </c>
       <c r="J30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -1438,28 +1432,28 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" t="s">
+        <v>17</v>
+      </c>
+      <c r="G31" t="s">
         <v>23</v>
       </c>
-      <c r="C31" t="s">
-        <v>16</v>
-      </c>
-      <c r="D31" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" t="s">
-        <v>17</v>
-      </c>
-      <c r="F31" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" t="s">
-        <v>24</v>
-      </c>
       <c r="I31">
-        <v>58.874000000000002</v>
+        <v>79.245000000000005</v>
       </c>
       <c r="J31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -1467,7 +1461,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C32" t="s">
         <v>9</v>
@@ -1482,13 +1476,13 @@
         <v>12</v>
       </c>
       <c r="G32" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I32">
-        <v>72.570999999999998</v>
+        <v>78.082999999999998</v>
       </c>
       <c r="J32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -1496,7 +1490,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C33" t="s">
         <v>9</v>
@@ -1511,13 +1505,13 @@
         <v>13</v>
       </c>
       <c r="G33" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I33">
-        <v>-100</v>
+        <v>83.837999999999994</v>
       </c>
       <c r="J33" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -1525,7 +1519,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C34" t="s">
         <v>9</v>
@@ -1540,13 +1534,13 @@
         <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I34">
-        <v>72.415000000000006</v>
+        <v>81.147999999999996</v>
       </c>
       <c r="J34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -1554,7 +1548,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C35" t="s">
         <v>9</v>
@@ -1569,13 +1563,13 @@
         <v>13</v>
       </c>
       <c r="G35" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I35">
-        <v>67.201999999999998</v>
+        <v>81</v>
       </c>
       <c r="J35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -1583,7 +1577,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C36" t="s">
         <v>9</v>
@@ -1598,13 +1592,13 @@
         <v>13</v>
       </c>
       <c r="G36" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I36">
-        <v>66.97</v>
+        <v>83.832999999999998</v>
       </c>
       <c r="J36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -1612,7 +1606,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C37" t="s">
         <v>9</v>
@@ -1627,13 +1621,13 @@
         <v>13</v>
       </c>
       <c r="G37" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I37">
-        <v>66.113</v>
+        <v>77.13</v>
       </c>
       <c r="J37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -1641,7 +1635,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C38" t="s">
         <v>9</v>
@@ -1656,13 +1650,13 @@
         <v>13</v>
       </c>
       <c r="G38" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I38">
-        <v>71.430000000000007</v>
+        <v>83.837999999999994</v>
       </c>
       <c r="J38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -1670,7 +1664,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C39" t="s">
         <v>9</v>
@@ -1685,13 +1679,13 @@
         <v>13</v>
       </c>
       <c r="G39" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I39">
-        <v>72.415000000000006</v>
+        <v>81.147999999999996</v>
       </c>
       <c r="J39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -1699,7 +1693,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C40" t="s">
         <v>9</v>
@@ -1711,16 +1705,16 @@
         <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G40" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I40">
-        <v>70.364000000000004</v>
+        <v>80.012</v>
       </c>
       <c r="J40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -1728,7 +1722,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C41" t="s">
         <v>9</v>
@@ -1743,13 +1737,13 @@
         <v>13</v>
       </c>
       <c r="G41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I41">
-        <v>62.421999999999997</v>
+        <v>81.988</v>
       </c>
       <c r="J41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -1757,7 +1751,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C42" t="s">
         <v>9</v>
@@ -1772,13 +1766,13 @@
         <v>13</v>
       </c>
       <c r="G42" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I42">
-        <v>66.113</v>
+        <v>77.13</v>
       </c>
       <c r="J42" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -1786,28 +1780,28 @@
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D43" t="s">
         <v>10</v>
       </c>
       <c r="E43" t="s">
+        <v>16</v>
+      </c>
+      <c r="F43" t="s">
         <v>17</v>
       </c>
-      <c r="F43" t="s">
-        <v>18</v>
-      </c>
       <c r="G43" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I43">
-        <v>70.364000000000004</v>
+        <v>80.012</v>
       </c>
       <c r="J43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -1815,28 +1809,28 @@
         <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D44" t="s">
         <v>10</v>
       </c>
       <c r="E44" t="s">
+        <v>16</v>
+      </c>
+      <c r="F44" t="s">
         <v>17</v>
       </c>
-      <c r="F44" t="s">
-        <v>18</v>
-      </c>
       <c r="G44" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I44">
-        <v>62.421999999999997</v>
+        <v>81.988</v>
       </c>
       <c r="J44" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -1844,28 +1838,28 @@
         <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D45" t="s">
         <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F45" t="s">
         <v>12</v>
       </c>
       <c r="G45" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I45">
-        <v>72.415000000000006</v>
+        <v>75.72</v>
       </c>
       <c r="J45" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -1873,28 +1867,28 @@
         <v>44</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D46" t="s">
         <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F46" t="s">
         <v>12</v>
       </c>
       <c r="G46" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I46">
-        <v>58.874000000000002</v>
+        <v>79.245000000000005</v>
       </c>
       <c r="J46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -1902,7 +1896,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C47" t="s">
         <v>9</v>
@@ -1917,13 +1911,13 @@
         <v>13</v>
       </c>
       <c r="G47" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I47">
-        <v>72.570999999999998</v>
+        <v>78.082999999999998</v>
       </c>
       <c r="J47" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -1931,7 +1925,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C48" t="s">
         <v>9</v>
@@ -1946,13 +1940,13 @@
         <v>13</v>
       </c>
       <c r="G48" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I48">
-        <v>71.430000000000007</v>
+        <v>83.837999999999994</v>
       </c>
       <c r="J48" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -1960,7 +1954,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C49" t="s">
         <v>9</v>
@@ -1975,13 +1969,13 @@
         <v>13</v>
       </c>
       <c r="G49" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I49">
-        <v>72.415000000000006</v>
+        <v>81.147999999999996</v>
       </c>
       <c r="J49" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -1989,7 +1983,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C50" t="s">
         <v>9</v>
@@ -2001,16 +1995,16 @@
         <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G50" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I50">
-        <v>70.364000000000004</v>
+        <v>80.012</v>
       </c>
       <c r="J50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -2018,7 +2012,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C51" t="s">
         <v>9</v>
@@ -2033,13 +2027,13 @@
         <v>13</v>
       </c>
       <c r="G51" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I51">
-        <v>66.97</v>
+        <v>83.832999999999998</v>
       </c>
       <c r="J51" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -2047,7 +2041,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C52" t="s">
         <v>9</v>
@@ -2062,13 +2056,13 @@
         <v>13</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I52">
-        <v>66.113</v>
+        <v>77.13</v>
       </c>
       <c r="J52" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -2076,28 +2070,28 @@
         <v>51</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C53" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D53" t="s">
         <v>10</v>
       </c>
       <c r="E53" t="s">
+        <v>16</v>
+      </c>
+      <c r="F53" t="s">
         <v>17</v>
       </c>
-      <c r="F53" t="s">
-        <v>18</v>
-      </c>
       <c r="G53" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I53">
-        <v>70.364000000000004</v>
+        <v>80.012</v>
       </c>
       <c r="J53" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -2105,28 +2099,28 @@
         <v>52</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C54" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D54" t="s">
         <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F54" t="s">
         <v>12</v>
       </c>
       <c r="G54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I54">
-        <v>62.421999999999997</v>
+        <v>81.988</v>
       </c>
       <c r="J54" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -2134,28 +2128,28 @@
         <v>53</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C55" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D55" t="s">
         <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F55" t="s">
         <v>12</v>
       </c>
       <c r="G55" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I55">
-        <v>72.415000000000006</v>
+        <v>75.72</v>
       </c>
       <c r="J55" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -2163,28 +2157,28 @@
         <v>54</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C56" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" t="s">
+        <v>16</v>
+      </c>
+      <c r="F56" t="s">
+        <v>17</v>
+      </c>
+      <c r="G56" t="s">
         <v>29</v>
       </c>
-      <c r="C56" t="s">
-        <v>16</v>
-      </c>
-      <c r="D56" t="s">
-        <v>10</v>
-      </c>
-      <c r="E56" t="s">
-        <v>17</v>
-      </c>
-      <c r="F56" t="s">
-        <v>18</v>
-      </c>
-      <c r="G56" t="s">
-        <v>30</v>
-      </c>
       <c r="I56">
-        <v>58.874000000000002</v>
+        <v>79.245000000000005</v>
       </c>
       <c r="J56" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -2192,28 +2186,28 @@
         <v>55</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C57" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D57" t="s">
         <v>10</v>
       </c>
       <c r="E57" t="s">
+        <v>16</v>
+      </c>
+      <c r="F57" t="s">
         <v>17</v>
       </c>
-      <c r="F57" t="s">
-        <v>18</v>
-      </c>
       <c r="G57" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I57">
-        <v>70.364000000000004</v>
+        <v>80.012</v>
       </c>
       <c r="J57" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -2221,28 +2215,28 @@
         <v>56</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C58" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D58" t="s">
         <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F58" t="s">
         <v>12</v>
       </c>
       <c r="G58" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I58">
-        <v>62.421999999999997</v>
+        <v>81.988</v>
       </c>
       <c r="J58" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
@@ -2250,28 +2244,28 @@
         <v>57</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C59" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D59" t="s">
         <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F59" t="s">
         <v>12</v>
       </c>
       <c r="G59" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I59">
-        <v>72.415000000000006</v>
+        <v>75.72</v>
       </c>
       <c r="J59" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
@@ -2279,28 +2273,28 @@
         <v>58</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C60" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D60" t="s">
         <v>10</v>
       </c>
       <c r="E60" t="s">
+        <v>16</v>
+      </c>
+      <c r="F60" t="s">
         <v>17</v>
       </c>
-      <c r="F60" t="s">
-        <v>18</v>
-      </c>
       <c r="G60" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I60">
-        <v>58.874000000000002</v>
+        <v>79.245000000000005</v>
       </c>
       <c r="J60" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
@@ -2308,7 +2302,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C61" t="s">
         <v>9</v>
@@ -2323,13 +2317,13 @@
         <v>13</v>
       </c>
       <c r="G61" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I61">
-        <v>72.570999999999998</v>
+        <v>78.082999999999998</v>
       </c>
       <c r="J61" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
@@ -2337,7 +2331,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C62" t="s">
         <v>9</v>
@@ -2352,13 +2346,13 @@
         <v>13</v>
       </c>
       <c r="G62" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I62">
-        <v>71.430000000000007</v>
+        <v>83.837999999999994</v>
       </c>
       <c r="J62" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
@@ -2366,7 +2360,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C63" t="s">
         <v>9</v>
@@ -2381,13 +2375,13 @@
         <v>13</v>
       </c>
       <c r="G63" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I63">
-        <v>72.415000000000006</v>
+        <v>81.147999999999996</v>
       </c>
       <c r="J63" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
@@ -2395,7 +2389,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C64" t="s">
         <v>9</v>
@@ -2407,16 +2401,16 @@
         <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G64" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I64">
-        <v>70.364000000000004</v>
+        <v>80.012</v>
       </c>
       <c r="J64" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
@@ -2424,7 +2418,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C65" t="s">
         <v>9</v>
@@ -2439,13 +2433,13 @@
         <v>13</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I65">
-        <v>66.97</v>
+        <v>83.832999999999998</v>
       </c>
       <c r="J65" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
@@ -2453,7 +2447,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C66" t="s">
         <v>9</v>
@@ -2468,19 +2462,19 @@
         <v>12</v>
       </c>
       <c r="G66" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I66">
-        <v>66.113</v>
+        <v>77.13</v>
       </c>
       <c r="J66" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I68">
         <f>AVERAGEIF(I2:I66,"&lt;&gt;-100")</f>
-        <v>66.648306451612868</v>
+        <v>80.294953846153859</v>
       </c>
     </row>
   </sheetData>

--- a/AI_Engine/Resultados/Resultados buenos/dataFrame - 70017078.xlsx
+++ b/AI_Engine/Resultados/Resultados buenos/dataFrame - 70017078.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deere-my.sharepoint.com/personal/gonzalezdiazsergio_johndeere_com/Documents/Desktop/Proyectos/Bot-Creacion-de-Pedidos/AI_Engine/Resultados/Resultados buenos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{5BAFB922-1596-43F5-BBAB-CAA09A9593B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97C4B715-F295-4BD8-91D1-6EAC3C173A40}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{5BAFB922-1596-43F5-BBAB-CAA09A9593B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{387B86E7-CE8B-4A22-A141-B0CF0B20C0F0}"/>
   <bookViews>
-    <workbookView xWindow="2115" yWindow="645" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="13950" windowHeight="11550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$66</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -549,8 +552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="M40" sqref="M40"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,6 +561,7 @@
     <col min="2" max="2" width="9.140625" style="2"/>
     <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -609,7 +613,7 @@
         <v>45</v>
       </c>
       <c r="I2">
-        <v>75.72</v>
+        <v>88.129000000000005</v>
       </c>
       <c r="J2" t="s">
         <v>32</v>
@@ -638,7 +642,7 @@
         <v>33</v>
       </c>
       <c r="I3">
-        <v>78.082999999999998</v>
+        <v>89.188999999999993</v>
       </c>
       <c r="J3" t="s">
         <v>32</v>
@@ -667,7 +671,7 @@
         <v>34</v>
       </c>
       <c r="I4">
-        <v>83.837999999999994</v>
+        <v>88.864999999999995</v>
       </c>
       <c r="J4" t="s">
         <v>32</v>
@@ -696,7 +700,7 @@
         <v>35</v>
       </c>
       <c r="I5">
-        <v>81.147999999999996</v>
+        <v>89.188999999999993</v>
       </c>
       <c r="J5" t="s">
         <v>32</v>
@@ -725,7 +729,7 @@
         <v>36</v>
       </c>
       <c r="I6">
-        <v>80.012</v>
+        <v>89.188999999999993</v>
       </c>
       <c r="J6" t="s">
         <v>32</v>
@@ -754,7 +758,7 @@
         <v>18</v>
       </c>
       <c r="I7">
-        <v>83.832999999999998</v>
+        <v>89.188999999999993</v>
       </c>
       <c r="J7" t="s">
         <v>32</v>
@@ -783,7 +787,7 @@
         <v>21</v>
       </c>
       <c r="I8">
-        <v>77.13</v>
+        <v>89.037999999999997</v>
       </c>
       <c r="J8" t="s">
         <v>32</v>
@@ -812,7 +816,7 @@
         <v>37</v>
       </c>
       <c r="I9">
-        <v>81.147999999999996</v>
+        <v>87.894000000000005</v>
       </c>
       <c r="J9" t="s">
         <v>32</v>
@@ -841,7 +845,7 @@
         <v>38</v>
       </c>
       <c r="I10">
-        <v>80.012</v>
+        <v>89.808000000000007</v>
       </c>
       <c r="J10" t="s">
         <v>32</v>
@@ -870,7 +874,7 @@
         <v>39</v>
       </c>
       <c r="I11">
-        <v>81.988</v>
+        <v>89.807000000000002</v>
       </c>
       <c r="J11" t="s">
         <v>32</v>
@@ -899,7 +903,7 @@
         <v>23</v>
       </c>
       <c r="I12">
-        <v>77.13</v>
+        <v>89.891000000000005</v>
       </c>
       <c r="J12" t="s">
         <v>32</v>
@@ -928,7 +932,7 @@
         <v>18</v>
       </c>
       <c r="I13">
-        <v>79.245000000000005</v>
+        <v>90.194000000000003</v>
       </c>
       <c r="J13" t="s">
         <v>32</v>
@@ -957,7 +961,7 @@
         <v>46</v>
       </c>
       <c r="I14">
-        <v>78.082999999999998</v>
+        <v>89.188999999999993</v>
       </c>
       <c r="J14" t="s">
         <v>32</v>
@@ -986,7 +990,7 @@
         <v>33</v>
       </c>
       <c r="I15">
-        <v>83.837999999999994</v>
+        <v>88.864999999999995</v>
       </c>
       <c r="J15" t="s">
         <v>32</v>
@@ -1015,7 +1019,7 @@
         <v>34</v>
       </c>
       <c r="I16">
-        <v>81.147999999999996</v>
+        <v>89.188999999999993</v>
       </c>
       <c r="J16" t="s">
         <v>32</v>
@@ -1044,7 +1048,7 @@
         <v>35</v>
       </c>
       <c r="I17">
-        <v>81</v>
+        <v>89.188999999999993</v>
       </c>
       <c r="J17" t="s">
         <v>32</v>
@@ -1073,7 +1077,7 @@
         <v>36</v>
       </c>
       <c r="I18">
-        <v>83.832999999999998</v>
+        <v>89.188999999999993</v>
       </c>
       <c r="J18" t="s">
         <v>32</v>
@@ -1102,7 +1106,7 @@
         <v>18</v>
       </c>
       <c r="I19">
-        <v>77.13</v>
+        <v>89.037999999999997</v>
       </c>
       <c r="J19" t="s">
         <v>32</v>
@@ -1131,7 +1135,7 @@
         <v>37</v>
       </c>
       <c r="I20">
-        <v>83.837999999999994</v>
+        <v>79.305999999999997</v>
       </c>
       <c r="J20" t="s">
         <v>32</v>
@@ -1160,7 +1164,7 @@
         <v>38</v>
       </c>
       <c r="I21">
-        <v>81.147999999999996</v>
+        <v>89.891999999999996</v>
       </c>
       <c r="J21" t="s">
         <v>32</v>
@@ -1189,7 +1193,7 @@
         <v>39</v>
       </c>
       <c r="I22">
-        <v>80.012</v>
+        <v>89.808000000000007</v>
       </c>
       <c r="J22" t="s">
         <v>32</v>
@@ -1218,7 +1222,7 @@
         <v>23</v>
       </c>
       <c r="I23">
-        <v>81.988</v>
+        <v>89.807000000000002</v>
       </c>
       <c r="J23" t="s">
         <v>32</v>
@@ -1247,7 +1251,7 @@
         <v>18</v>
       </c>
       <c r="I24">
-        <v>77.13</v>
+        <v>89.891000000000005</v>
       </c>
       <c r="J24" t="s">
         <v>32</v>
@@ -1276,7 +1280,7 @@
         <v>21</v>
       </c>
       <c r="I25">
-        <v>79.245000000000005</v>
+        <v>90.194000000000003</v>
       </c>
       <c r="J25" t="s">
         <v>32</v>
@@ -1305,7 +1309,7 @@
         <v>40</v>
       </c>
       <c r="I26">
-        <v>83.837999999999994</v>
+        <v>88.864999999999995</v>
       </c>
       <c r="J26" t="s">
         <v>32</v>
@@ -1334,7 +1338,7 @@
         <v>41</v>
       </c>
       <c r="I27">
-        <v>81.147999999999996</v>
+        <v>89.891999999999996</v>
       </c>
       <c r="J27" t="s">
         <v>32</v>
@@ -1363,7 +1367,7 @@
         <v>37</v>
       </c>
       <c r="I28">
-        <v>80.012</v>
+        <v>87.745000000000005</v>
       </c>
       <c r="J28" t="s">
         <v>32</v>
@@ -1392,7 +1396,7 @@
         <v>38</v>
       </c>
       <c r="I29">
-        <v>81.988</v>
+        <v>89.807000000000002</v>
       </c>
       <c r="J29" t="s">
         <v>32</v>
@@ -1421,7 +1425,7 @@
         <v>39</v>
       </c>
       <c r="I30">
-        <v>77.13</v>
+        <v>89.891000000000005</v>
       </c>
       <c r="J30" t="s">
         <v>32</v>
@@ -1450,7 +1454,7 @@
         <v>23</v>
       </c>
       <c r="I31">
-        <v>79.245000000000005</v>
+        <v>90.194000000000003</v>
       </c>
       <c r="J31" t="s">
         <v>32</v>
@@ -1479,7 +1483,7 @@
         <v>40</v>
       </c>
       <c r="I32">
-        <v>78.082999999999998</v>
+        <v>89.188999999999993</v>
       </c>
       <c r="J32" t="s">
         <v>32</v>
@@ -1508,7 +1512,7 @@
         <v>46</v>
       </c>
       <c r="I33">
-        <v>83.837999999999994</v>
+        <v>88.864999999999995</v>
       </c>
       <c r="J33" t="s">
         <v>32</v>
@@ -1537,7 +1541,7 @@
         <v>33</v>
       </c>
       <c r="I34">
-        <v>81.147999999999996</v>
+        <v>89.188999999999993</v>
       </c>
       <c r="J34" t="s">
         <v>32</v>
@@ -1566,7 +1570,7 @@
         <v>34</v>
       </c>
       <c r="I35">
-        <v>81</v>
+        <v>89.188999999999993</v>
       </c>
       <c r="J35" t="s">
         <v>32</v>
@@ -1595,7 +1599,7 @@
         <v>35</v>
       </c>
       <c r="I36">
-        <v>83.832999999999998</v>
+        <v>89.188999999999993</v>
       </c>
       <c r="J36" t="s">
         <v>32</v>
@@ -1624,7 +1628,7 @@
         <v>36</v>
       </c>
       <c r="I37">
-        <v>77.13</v>
+        <v>89.037999999999997</v>
       </c>
       <c r="J37" t="s">
         <v>32</v>
@@ -1653,7 +1657,7 @@
         <v>34</v>
       </c>
       <c r="I38">
-        <v>83.837999999999994</v>
+        <v>88.864999999999995</v>
       </c>
       <c r="J38" t="s">
         <v>32</v>
@@ -1682,7 +1686,7 @@
         <v>35</v>
       </c>
       <c r="I39">
-        <v>81.147999999999996</v>
+        <v>89.188999999999993</v>
       </c>
       <c r="J39" t="s">
         <v>32</v>
@@ -1711,7 +1715,7 @@
         <v>36</v>
       </c>
       <c r="I40">
-        <v>80.012</v>
+        <v>89.188999999999993</v>
       </c>
       <c r="J40" t="s">
         <v>32</v>
@@ -1740,7 +1744,7 @@
         <v>18</v>
       </c>
       <c r="I41">
-        <v>81.988</v>
+        <v>89.188999999999993</v>
       </c>
       <c r="J41" t="s">
         <v>32</v>
@@ -1769,7 +1773,7 @@
         <v>21</v>
       </c>
       <c r="I42">
-        <v>77.13</v>
+        <v>89.188999999999993</v>
       </c>
       <c r="J42" t="s">
         <v>32</v>
@@ -1798,7 +1802,7 @@
         <v>34</v>
       </c>
       <c r="I43">
-        <v>80.012</v>
+        <v>89.808000000000007</v>
       </c>
       <c r="J43" t="s">
         <v>32</v>
@@ -1827,7 +1831,7 @@
         <v>23</v>
       </c>
       <c r="I44">
-        <v>81.988</v>
+        <v>89.807000000000002</v>
       </c>
       <c r="J44" t="s">
         <v>32</v>
@@ -1856,7 +1860,7 @@
         <v>18</v>
       </c>
       <c r="I45">
-        <v>75.72</v>
+        <v>88.129000000000005</v>
       </c>
       <c r="J45" t="s">
         <v>32</v>
@@ -1885,7 +1889,7 @@
         <v>21</v>
       </c>
       <c r="I46">
-        <v>79.245000000000005</v>
+        <v>90.194000000000003</v>
       </c>
       <c r="J46" t="s">
         <v>32</v>
@@ -1914,7 +1918,7 @@
         <v>35</v>
       </c>
       <c r="I47">
-        <v>78.082999999999998</v>
+        <v>89.188999999999993</v>
       </c>
       <c r="J47" t="s">
         <v>32</v>
@@ -1943,7 +1947,7 @@
         <v>36</v>
       </c>
       <c r="I48">
-        <v>83.837999999999994</v>
+        <v>88.864999999999995</v>
       </c>
       <c r="J48" t="s">
         <v>32</v>
@@ -1972,7 +1976,7 @@
         <v>18</v>
       </c>
       <c r="I49">
-        <v>81.147999999999996</v>
+        <v>89.188999999999993</v>
       </c>
       <c r="J49" t="s">
         <v>32</v>
@@ -2001,7 +2005,7 @@
         <v>21</v>
       </c>
       <c r="I50">
-        <v>80.012</v>
+        <v>89.188999999999993</v>
       </c>
       <c r="J50" t="s">
         <v>32</v>
@@ -2030,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="I51">
-        <v>83.832999999999998</v>
+        <v>89.188999999999993</v>
       </c>
       <c r="J51" t="s">
         <v>32</v>
@@ -2059,7 +2063,7 @@
         <v>43</v>
       </c>
       <c r="I52">
-        <v>77.13</v>
+        <v>89.037999999999997</v>
       </c>
       <c r="J52" t="s">
         <v>32</v>
@@ -2088,7 +2092,7 @@
         <v>23</v>
       </c>
       <c r="I53">
-        <v>80.012</v>
+        <v>89.808000000000007</v>
       </c>
       <c r="J53" t="s">
         <v>32</v>
@@ -2117,7 +2121,7 @@
         <v>18</v>
       </c>
       <c r="I54">
-        <v>81.988</v>
+        <v>89.807000000000002</v>
       </c>
       <c r="J54" t="s">
         <v>32</v>
@@ -2146,7 +2150,7 @@
         <v>21</v>
       </c>
       <c r="I55">
-        <v>75.72</v>
+        <v>88.129000000000005</v>
       </c>
       <c r="J55" t="s">
         <v>32</v>
@@ -2175,7 +2179,7 @@
         <v>29</v>
       </c>
       <c r="I56">
-        <v>79.245000000000005</v>
+        <v>90.194000000000003</v>
       </c>
       <c r="J56" t="s">
         <v>32</v>
@@ -2204,7 +2208,7 @@
         <v>23</v>
       </c>
       <c r="I57">
-        <v>80.012</v>
+        <v>89.808000000000007</v>
       </c>
       <c r="J57" t="s">
         <v>32</v>
@@ -2233,7 +2237,7 @@
         <v>18</v>
       </c>
       <c r="I58">
-        <v>81.988</v>
+        <v>89.807000000000002</v>
       </c>
       <c r="J58" t="s">
         <v>32</v>
@@ -2262,7 +2266,7 @@
         <v>21</v>
       </c>
       <c r="I59">
-        <v>75.72</v>
+        <v>88.129000000000005</v>
       </c>
       <c r="J59" t="s">
         <v>32</v>
@@ -2291,7 +2295,7 @@
         <v>29</v>
       </c>
       <c r="I60">
-        <v>79.245000000000005</v>
+        <v>90.194000000000003</v>
       </c>
       <c r="J60" t="s">
         <v>32</v>
@@ -2320,7 +2324,7 @@
         <v>36</v>
       </c>
       <c r="I61">
-        <v>78.082999999999998</v>
+        <v>89.188999999999993</v>
       </c>
       <c r="J61" t="s">
         <v>32</v>
@@ -2349,7 +2353,7 @@
         <v>18</v>
       </c>
       <c r="I62">
-        <v>83.837999999999994</v>
+        <v>88.864999999999995</v>
       </c>
       <c r="J62" t="s">
         <v>32</v>
@@ -2378,7 +2382,7 @@
         <v>21</v>
       </c>
       <c r="I63">
-        <v>81.147999999999996</v>
+        <v>89.188999999999993</v>
       </c>
       <c r="J63" t="s">
         <v>32</v>
@@ -2407,7 +2411,7 @@
         <v>42</v>
       </c>
       <c r="I64">
-        <v>80.012</v>
+        <v>89.188999999999993</v>
       </c>
       <c r="J64" t="s">
         <v>32</v>
@@ -2436,7 +2440,7 @@
         <v>43</v>
       </c>
       <c r="I65">
-        <v>83.832999999999998</v>
+        <v>89.188999999999993</v>
       </c>
       <c r="J65" t="s">
         <v>32</v>
@@ -2465,7 +2469,7 @@
         <v>44</v>
       </c>
       <c r="I66">
-        <v>77.13</v>
+        <v>89.037999999999997</v>
       </c>
       <c r="J66" t="s">
         <v>32</v>
@@ -2474,10 +2478,11 @@
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I68">
         <f>AVERAGEIF(I2:I66,"&lt;&gt;-100")</f>
-        <v>80.294953846153859</v>
+        <v>89.13453846153844</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J66" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
   <headerFooter>

--- a/AI_Engine/Resultados/Resultados buenos/dataFrame - 70017078.xlsx
+++ b/AI_Engine/Resultados/Resultados buenos/dataFrame - 70017078.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deere-my.sharepoint.com/personal/gonzalezdiazsergio_johndeere_com/Documents/Desktop/Proyectos/Bot-Creacion-de-Pedidos/AI_Engine/Resultados/Resultados buenos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{5BAFB922-1596-43F5-BBAB-CAA09A9593B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{387B86E7-CE8B-4A22-A141-B0CF0B20C0F0}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{5BAFB922-1596-43F5-BBAB-CAA09A9593B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2CCB9C1-98DE-4EE4-A8C7-F0C9027B2F4A}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="13950" windowHeight="11550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="0" windowWidth="20925" windowHeight="16995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -550,10 +550,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E70" sqref="E70"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,7 +591,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -607,19 +608,19 @@
         <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="I2">
-        <v>88.129000000000005</v>
+        <v>77.13</v>
       </c>
       <c r="J2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -639,16 +640,16 @@
         <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I3">
-        <v>89.188999999999993</v>
+        <v>83.832999999999998</v>
       </c>
       <c r="J3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -668,10 +669,10 @@
         <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I4">
-        <v>88.864999999999995</v>
+        <v>80.012</v>
       </c>
       <c r="J4" t="s">
         <v>32</v>
@@ -700,7 +701,7 @@
         <v>35</v>
       </c>
       <c r="I5">
-        <v>89.188999999999993</v>
+        <v>81.147999999999996</v>
       </c>
       <c r="J5" t="s">
         <v>32</v>
@@ -726,10 +727,10 @@
         <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I6">
-        <v>89.188999999999993</v>
+        <v>83.837999999999994</v>
       </c>
       <c r="J6" t="s">
         <v>32</v>
@@ -755,16 +756,16 @@
         <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I7">
-        <v>89.188999999999993</v>
+        <v>78.082999999999998</v>
       </c>
       <c r="J7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -781,19 +782,19 @@
         <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="I8">
-        <v>89.037999999999997</v>
+        <v>75.72</v>
       </c>
       <c r="J8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -813,10 +814,10 @@
         <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="I9">
-        <v>87.894000000000005</v>
+        <v>79.245000000000005</v>
       </c>
       <c r="J9" t="s">
         <v>32</v>
@@ -839,13 +840,13 @@
         <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G10" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="I10">
-        <v>89.808000000000007</v>
+        <v>77.13</v>
       </c>
       <c r="J10" t="s">
         <v>32</v>
@@ -874,13 +875,13 @@
         <v>39</v>
       </c>
       <c r="I11">
-        <v>89.807000000000002</v>
+        <v>81.988</v>
       </c>
       <c r="J11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -897,19 +898,19 @@
         <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G12" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="I12">
-        <v>89.891000000000005</v>
+        <v>80.012</v>
       </c>
       <c r="J12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -929,16 +930,16 @@
         <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I13">
-        <v>90.194000000000003</v>
+        <v>81.147999999999996</v>
       </c>
       <c r="J13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -958,16 +959,16 @@
         <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="I14">
-        <v>89.188999999999993</v>
+        <v>77.13</v>
       </c>
       <c r="J14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -987,10 +988,10 @@
         <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I15">
-        <v>88.864999999999995</v>
+        <v>83.832999999999998</v>
       </c>
       <c r="J15" t="s">
         <v>32</v>
@@ -1016,10 +1017,10 @@
         <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I16">
-        <v>89.188999999999993</v>
+        <v>81</v>
       </c>
       <c r="J16" t="s">
         <v>32</v>
@@ -1045,10 +1046,10 @@
         <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I17">
-        <v>89.188999999999993</v>
+        <v>81.147999999999996</v>
       </c>
       <c r="J17" t="s">
         <v>32</v>
@@ -1074,16 +1075,16 @@
         <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I18">
-        <v>89.188999999999993</v>
+        <v>83.837999999999994</v>
       </c>
       <c r="J18" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1103,16 +1104,16 @@
         <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="I19">
-        <v>89.037999999999997</v>
+        <v>78.082999999999998</v>
       </c>
       <c r="J19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1129,19 +1130,19 @@
         <v>16</v>
       </c>
       <c r="F20" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G20" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I20">
-        <v>79.305999999999997</v>
+        <v>79.245000000000005</v>
       </c>
       <c r="J20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1158,13 +1159,13 @@
         <v>16</v>
       </c>
       <c r="F21" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G21" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="I21">
-        <v>89.891999999999996</v>
+        <v>77.13</v>
       </c>
       <c r="J21" t="s">
         <v>32</v>
@@ -1187,13 +1188,13 @@
         <v>16</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G22" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="I22">
-        <v>89.808000000000007</v>
+        <v>81.988</v>
       </c>
       <c r="J22" t="s">
         <v>32</v>
@@ -1216,19 +1217,19 @@
         <v>16</v>
       </c>
       <c r="F23" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G23" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="I23">
-        <v>89.807000000000002</v>
+        <v>80.012</v>
       </c>
       <c r="J23" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1245,19 +1246,19 @@
         <v>16</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G24" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="I24">
-        <v>89.891000000000005</v>
+        <v>81.147999999999996</v>
       </c>
       <c r="J24" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1274,13 +1275,13 @@
         <v>16</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G25" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I25">
-        <v>90.194000000000003</v>
+        <v>83.837999999999994</v>
       </c>
       <c r="J25" t="s">
         <v>32</v>
@@ -1306,10 +1307,10 @@
         <v>17</v>
       </c>
       <c r="G26" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="I26">
-        <v>88.864999999999995</v>
+        <v>79.245000000000005</v>
       </c>
       <c r="J26" t="s">
         <v>32</v>
@@ -1332,19 +1333,19 @@
         <v>16</v>
       </c>
       <c r="F27" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G27" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I27">
-        <v>89.891999999999996</v>
+        <v>77.13</v>
       </c>
       <c r="J27" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1364,16 +1365,16 @@
         <v>12</v>
       </c>
       <c r="G28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I28">
-        <v>87.745000000000005</v>
+        <v>81.988</v>
       </c>
       <c r="J28" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1393,16 +1394,16 @@
         <v>12</v>
       </c>
       <c r="G29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I29">
-        <v>89.807000000000002</v>
+        <v>80.012</v>
       </c>
       <c r="J29" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1419,19 +1420,19 @@
         <v>16</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G30" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I30">
-        <v>89.891000000000005</v>
+        <v>81.147999999999996</v>
       </c>
       <c r="J30" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1451,16 +1452,16 @@
         <v>17</v>
       </c>
       <c r="G31" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="I31">
-        <v>90.194000000000003</v>
+        <v>83.837999999999994</v>
       </c>
       <c r="J31" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1477,13 +1478,13 @@
         <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I32">
-        <v>89.188999999999993</v>
+        <v>77.13</v>
       </c>
       <c r="J32" t="s">
         <v>32</v>
@@ -1509,10 +1510,10 @@
         <v>13</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="I33">
-        <v>88.864999999999995</v>
+        <v>83.832999999999998</v>
       </c>
       <c r="J33" t="s">
         <v>32</v>
@@ -1538,10 +1539,10 @@
         <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I34">
-        <v>89.188999999999993</v>
+        <v>81</v>
       </c>
       <c r="J34" t="s">
         <v>32</v>
@@ -1567,16 +1568,16 @@
         <v>13</v>
       </c>
       <c r="G35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I35">
-        <v>89.188999999999993</v>
+        <v>81.147999999999996</v>
       </c>
       <c r="J35" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1596,16 +1597,16 @@
         <v>13</v>
       </c>
       <c r="G36" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="I36">
-        <v>89.188999999999993</v>
+        <v>83.837999999999994</v>
       </c>
       <c r="J36" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1622,19 +1623,19 @@
         <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G37" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I37">
-        <v>89.037999999999997</v>
+        <v>78.082999999999998</v>
       </c>
       <c r="J37" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1654,16 +1655,16 @@
         <v>13</v>
       </c>
       <c r="G38" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I38">
-        <v>88.864999999999995</v>
+        <v>77.13</v>
       </c>
       <c r="J38" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1683,16 +1684,16 @@
         <v>13</v>
       </c>
       <c r="G39" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="I39">
-        <v>89.188999999999993</v>
+        <v>81.988</v>
       </c>
       <c r="J39" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1715,7 +1716,7 @@
         <v>36</v>
       </c>
       <c r="I40">
-        <v>89.188999999999993</v>
+        <v>80.012</v>
       </c>
       <c r="J40" t="s">
         <v>32</v>
@@ -1741,10 +1742,10 @@
         <v>13</v>
       </c>
       <c r="G41" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="I41">
-        <v>89.188999999999993</v>
+        <v>81.147999999999996</v>
       </c>
       <c r="J41" t="s">
         <v>32</v>
@@ -1770,16 +1771,16 @@
         <v>13</v>
       </c>
       <c r="G42" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I42">
-        <v>89.188999999999993</v>
+        <v>83.837999999999994</v>
       </c>
       <c r="J42" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1796,19 +1797,19 @@
         <v>16</v>
       </c>
       <c r="F43" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G43" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I43">
-        <v>89.808000000000007</v>
+        <v>79.245000000000005</v>
       </c>
       <c r="J43" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1825,13 +1826,13 @@
         <v>16</v>
       </c>
       <c r="F44" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G44" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I44">
-        <v>89.807000000000002</v>
+        <v>75.72</v>
       </c>
       <c r="J44" t="s">
         <v>32</v>
@@ -1854,13 +1855,13 @@
         <v>16</v>
       </c>
       <c r="F45" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G45" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I45">
-        <v>88.129000000000005</v>
+        <v>81.988</v>
       </c>
       <c r="J45" t="s">
         <v>32</v>
@@ -1883,19 +1884,19 @@
         <v>16</v>
       </c>
       <c r="F46" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G46" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I46">
-        <v>90.194000000000003</v>
+        <v>80.012</v>
       </c>
       <c r="J46" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1915,16 +1916,16 @@
         <v>13</v>
       </c>
       <c r="G47" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I47">
-        <v>89.188999999999993</v>
+        <v>77.13</v>
       </c>
       <c r="J47" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1944,16 +1945,16 @@
         <v>13</v>
       </c>
       <c r="G48" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="I48">
-        <v>88.864999999999995</v>
+        <v>83.832999999999998</v>
       </c>
       <c r="J48" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1973,16 +1974,16 @@
         <v>13</v>
       </c>
       <c r="G49" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I49">
-        <v>89.188999999999993</v>
+        <v>80.012</v>
       </c>
       <c r="J49" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -2002,16 +2003,16 @@
         <v>13</v>
       </c>
       <c r="G50" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I50">
-        <v>89.188999999999993</v>
+        <v>81.147999999999996</v>
       </c>
       <c r="J50" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -2031,10 +2032,10 @@
         <v>13</v>
       </c>
       <c r="G51" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I51">
-        <v>89.188999999999993</v>
+        <v>83.837999999999994</v>
       </c>
       <c r="J51" t="s">
         <v>32</v>
@@ -2060,16 +2061,16 @@
         <v>13</v>
       </c>
       <c r="G52" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="I52">
-        <v>89.037999999999997</v>
+        <v>78.082999999999998</v>
       </c>
       <c r="J52" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -2089,16 +2090,16 @@
         <v>17</v>
       </c>
       <c r="G53" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I53">
-        <v>89.808000000000007</v>
+        <v>79.245000000000005</v>
       </c>
       <c r="J53" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -2118,16 +2119,16 @@
         <v>12</v>
       </c>
       <c r="G54" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I54">
-        <v>89.807000000000002</v>
+        <v>75.72</v>
       </c>
       <c r="J54" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -2147,10 +2148,10 @@
         <v>12</v>
       </c>
       <c r="G55" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I55">
-        <v>88.129000000000005</v>
+        <v>81.988</v>
       </c>
       <c r="J55" t="s">
         <v>32</v>
@@ -2176,16 +2177,16 @@
         <v>17</v>
       </c>
       <c r="G56" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I56">
-        <v>90.194000000000003</v>
+        <v>80.012</v>
       </c>
       <c r="J56" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -2205,16 +2206,16 @@
         <v>17</v>
       </c>
       <c r="G57" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I57">
-        <v>89.808000000000007</v>
+        <v>79.245000000000005</v>
       </c>
       <c r="J57" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -2234,16 +2235,16 @@
         <v>12</v>
       </c>
       <c r="G58" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I58">
-        <v>89.807000000000002</v>
+        <v>75.72</v>
       </c>
       <c r="J58" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -2263,10 +2264,10 @@
         <v>12</v>
       </c>
       <c r="G59" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I59">
-        <v>88.129000000000005</v>
+        <v>81.988</v>
       </c>
       <c r="J59" t="s">
         <v>32</v>
@@ -2292,16 +2293,16 @@
         <v>17</v>
       </c>
       <c r="G60" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I60">
-        <v>90.194000000000003</v>
+        <v>80.012</v>
       </c>
       <c r="J60" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -2318,19 +2319,19 @@
         <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G61" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="I61">
-        <v>89.188999999999993</v>
+        <v>77.13</v>
       </c>
       <c r="J61" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -2350,16 +2351,16 @@
         <v>13</v>
       </c>
       <c r="G62" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="I62">
-        <v>88.864999999999995</v>
+        <v>83.832999999999998</v>
       </c>
       <c r="J62" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -2379,16 +2380,16 @@
         <v>13</v>
       </c>
       <c r="G63" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="I63">
-        <v>89.188999999999993</v>
+        <v>80.012</v>
       </c>
       <c r="J63" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -2408,16 +2409,16 @@
         <v>13</v>
       </c>
       <c r="G64" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="I64">
-        <v>89.188999999999993</v>
+        <v>81.147999999999996</v>
       </c>
       <c r="J64" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -2437,16 +2438,16 @@
         <v>13</v>
       </c>
       <c r="G65" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="I65">
-        <v>89.188999999999993</v>
+        <v>83.837999999999994</v>
       </c>
       <c r="J65" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -2463,13 +2464,13 @@
         <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G66" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="I66">
-        <v>89.037999999999997</v>
+        <v>78.082999999999998</v>
       </c>
       <c r="J66" t="s">
         <v>32</v>
@@ -2478,11 +2479,21 @@
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I68">
         <f>AVERAGEIF(I2:I66,"&lt;&gt;-100")</f>
-        <v>89.13453846153844</v>
+        <v>80.294953846153859</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J66" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:J66" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="W 40.2021"/>
+        <filter val="W 41.2021"/>
+        <filter val="W 45.2021"/>
+        <filter val="W 46.2021"/>
+        <filter val="W 48.2021"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
   <headerFooter>
